--- a/statistics/HistoricalDistanceData/historical_distance/Q10971509-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q10971509-en.xlsx
@@ -31,45 +31,45 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Novel inspired by first eisteddfod and historic castle</t>
+  </si>
+  <si>
+    <t>Medieval legacy is there to be enjoyed</t>
+  </si>
+  <si>
+    <t>The first eisteddfod - Christmas 1176</t>
+  </si>
+  <si>
+    <t>Nine foot replica of original National Eisteddfod chair is installed at the sitwe of Wales' very first cultural festival</t>
+  </si>
+  <si>
     <t>Eisteddfod may have sprung from French idea</t>
   </si>
   <si>
-    <t>The first eisteddfod - Christmas 1176</t>
-  </si>
-  <si>
-    <t>Nine foot replica of original National Eisteddfod chair is installed at the sitwe of Wales' very first cultural festival</t>
-  </si>
-  <si>
     <t>Staff at Cardigan Castle's 1176 restaurant round off hectic year with busy Christmas period</t>
   </si>
   <si>
-    <t>Medieval legacy is there to be enjoyed</t>
-  </si>
-  <si>
-    <t>Novel inspired by first eisteddfod and historic castle</t>
-  </si>
-  <si>
     <t>RHYS ap GRUFFYDD (1132 - 1197), lord of Deheubarth, known in history as ' Yr Arglwydd Rhys ' (' The lord Rhys ').</t>
   </si>
   <si>
+    <t>2018-03-17T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2011-03-24T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2010-12-22T13:07:23UTC</t>
+  </si>
+  <si>
+    <t>2015-03-18T16:52:24UTC</t>
+  </si>
+  <si>
     <t>2007-02-09T00:00:00UTC</t>
   </si>
   <si>
-    <t>2010-12-22T13:07:23UTC</t>
-  </si>
-  <si>
-    <t>2015-03-18T16:52:24UTC</t>
-  </si>
-  <si>
     <t>2016-12-19T09:51:13UTC</t>
   </si>
   <si>
-    <t>2011-03-24T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-03-17T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -79,22 +79,22 @@
     <t>outside bucket range</t>
   </si>
   <si>
+    <t>http://www.cambrian-news.co.uk/article.cfm?id=119720&amp;headline=Novel%20inspired%20by%20first%20eisteddfod%20and%20historic%20castle&amp;sectionIs=news&amp;searchyear=2018</t>
+  </si>
+  <si>
+    <t>https://www.walesonline.co.uk/lifestyle/showbiz/medieval-legacy-enjoyed-1848163</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/blogs/wales/entries/a1b7c602-5c9b-3bc1-ba13-fd64dc068ffc</t>
+  </si>
+  <si>
+    <t>https://www.walesonline.co.uk/news/wales-news/nine-foot-replica-original-national-8870165</t>
+  </si>
+  <si>
     <t>https://www.walesonline.co.uk/news/wales-news/eisteddfod-sprung-french-idea-2273397</t>
   </si>
   <si>
-    <t>https://www.bbc.co.uk/blogs/wales/entries/a1b7c602-5c9b-3bc1-ba13-fd64dc068ffc</t>
-  </si>
-  <si>
-    <t>https://www.walesonline.co.uk/news/wales-news/nine-foot-replica-original-national-8870165</t>
-  </si>
-  <si>
     <t>https://www.tivysideadvertiser.co.uk/news/14974769.restaurant-staff-set-to-turn-back-clock-with-christmas-servings/</t>
-  </si>
-  <si>
-    <t>https://www.walesonline.co.uk/lifestyle/showbiz/medieval-legacy-enjoyed-1848163</t>
-  </si>
-  <si>
-    <t>http://www.cambrian-news.co.uk/article.cfm?id=119720&amp;headline=Novel%20inspired%20by%20first%20eisteddfod%20and%20historic%20castle&amp;sectionIs=news&amp;searchyear=2018</t>
   </si>
   <si>
     <t>https://biography.wales/article/s-RHYS-APG-1132#?c=0&amp;m=0&amp;s=0&amp;cv=0&amp;manifest=https://damsssl.llgc.org.uk/iiif/2.0/4674458/manifest.json&amp;xywh=-1618,-1,7498,6051</t>
@@ -499,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>303556</v>
+        <v>307610</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>304968</v>
+        <v>305060</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>306515</v>
+        <v>304968</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>307157</v>
+        <v>306515</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>305060</v>
+        <v>303556</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -584,7 +584,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>307610</v>
+        <v>307157</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
